--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,181 +58,187 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
     <t>pie</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>cake</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>pop</t>
+    <t>gift</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>cooking</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>gr</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>new</t>
+    <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>works</t>
+    <t>little</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>little</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>bought</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>makes</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>one</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -596,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,7 +613,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -715,13 +721,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +747,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.8671875</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +773,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +799,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.855072463768116</v>
+        <v>0.846749226006192</v>
       </c>
       <c r="L7">
-        <v>59</v>
+        <v>547</v>
       </c>
       <c r="M7">
-        <v>59</v>
+        <v>547</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -811,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -819,13 +825,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.8436532507739938</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L8">
-        <v>545</v>
+        <v>57</v>
       </c>
       <c r="M8">
-        <v>545</v>
+        <v>57</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -837,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -845,13 +851,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7954545454545454</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -863,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -897,13 +903,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.7333333333333333</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -915,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -923,13 +929,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.7316017316017316</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L12">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="M12">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -949,13 +955,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6576271186440678</v>
+        <v>0.65625</v>
       </c>
       <c r="L13">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -975,13 +981,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.65625</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1001,13 +1007,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6461538461538462</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1019,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1027,13 +1033,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.64</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L16">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1045,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1053,13 +1059,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6338028169014085</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1079,13 +1085,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6326530612244898</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>784</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>784</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1097,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1105,13 +1111,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.6301369863013698</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1131,13 +1137,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.6274509803921569</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1149,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1157,13 +1163,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.625</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1183,13 +1189,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.6243980738362761</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>778</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>778</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1201,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>468</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1209,13 +1215,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.6176470588235294</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1227,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1235,13 +1241,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.6041666666666666</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1253,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1261,13 +1267,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L25">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1287,13 +1293,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5614035087719298</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1305,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1313,13 +1319,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.5555555555555556</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1331,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1339,13 +1345,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.5384615384615384</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1357,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1365,13 +1371,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.5209580838323353</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L29">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1383,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1391,13 +1397,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.4957264957264957</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L30">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M30">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1409,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1417,13 +1423,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.4887218045112782</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="L31">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="M31">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1435,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1443,13 +1449,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.4711538461538461</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L32">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1461,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1469,13 +1475,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.47</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L33">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1487,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1495,13 +1501,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.4691358024691358</v>
+        <v>0.47</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1513,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1521,13 +1527,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.4603174603174603</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1539,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>34</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1547,13 +1553,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.4473684210526316</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1565,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1573,13 +1579,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.4457831325301205</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1599,13 +1605,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.4156626506024096</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L38">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="M38">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1617,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1625,13 +1631,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.3657587548638132</v>
+        <v>0.3700980392156863</v>
       </c>
       <c r="L39">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="M39">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1643,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>163</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1651,13 +1657,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.3553921568627451</v>
+        <v>0.3663366336633663</v>
       </c>
       <c r="L40">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1669,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>263</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1677,13 +1683,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.3452054794520548</v>
+        <v>0.3597122302158273</v>
       </c>
       <c r="L41">
-        <v>252</v>
+        <v>50</v>
       </c>
       <c r="M41">
-        <v>252</v>
+        <v>50</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1695,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>478</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1703,13 +1709,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.3383458646616541</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L42">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="M42">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1721,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>88</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1729,13 +1735,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.3381294964028777</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L43">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M43">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1747,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1755,13 +1761,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.3240740740740741</v>
+        <v>0.3356164383561644</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="M44">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1773,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>73</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1781,13 +1787,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.3063063063063063</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L45">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M45">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1799,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1807,13 +1813,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.2857142857142857</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1825,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>75</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1833,13 +1839,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.2781456953642384</v>
+        <v>0.2518837459634015</v>
       </c>
       <c r="L47">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="M47">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1851,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>109</v>
+        <v>695</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1859,13 +1865,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.2497308934337998</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="L48">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="M48">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1877,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>697</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1885,13 +1891,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.2344497607655502</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="L49">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M49">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1903,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>160</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1911,13 +1917,13 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.2225705329153605</v>
+        <v>0.2163009404388715</v>
       </c>
       <c r="L50">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M50">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1929,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1937,13 +1943,13 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.2147651006711409</v>
+        <v>0.2026490066225166</v>
       </c>
       <c r="L51">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="M51">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1955,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>117</v>
+        <v>602</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1963,13 +1969,13 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.2058823529411765</v>
+        <v>0.1815856777493606</v>
       </c>
       <c r="L52">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="M52">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1981,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>621</v>
+        <v>640</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1989,25 +1995,25 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.1830238726790451</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="L53">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="M53">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="N53">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>616</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2015,25 +2021,25 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.1657608695652174</v>
+        <v>0.1644204851752022</v>
       </c>
       <c r="L54">
         <v>61</v>
       </c>
       <c r="M54">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2041,13 +2047,13 @@
         <v>62</v>
       </c>
       <c r="K55">
-        <v>0.1649484536082474</v>
+        <v>0.1508515815085158</v>
       </c>
       <c r="L55">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M55">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2059,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>243</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2067,13 +2073,13 @@
         <v>63</v>
       </c>
       <c r="K56">
-        <v>0.1576354679802956</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="L56">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M56">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2085,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>171</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2093,13 +2099,13 @@
         <v>64</v>
       </c>
       <c r="K57">
-        <v>0.1532846715328467</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L57">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2111,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>348</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2119,13 +2125,13 @@
         <v>65</v>
       </c>
       <c r="K58">
-        <v>0.1431818181818182</v>
+        <v>0.1384248210023866</v>
       </c>
       <c r="L58">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M58">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2137,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2145,13 +2151,13 @@
         <v>66</v>
       </c>
       <c r="K59">
-        <v>0.138655462184874</v>
+        <v>0.137037037037037</v>
       </c>
       <c r="L59">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M59">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2163,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>205</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2171,13 +2177,13 @@
         <v>67</v>
       </c>
       <c r="K60">
-        <v>0.1291512915129151</v>
+        <v>0.1365313653136531</v>
       </c>
       <c r="L60">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M60">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2189,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2197,7 +2203,7 @@
         <v>68</v>
       </c>
       <c r="K61">
-        <v>0.1206140350877193</v>
+        <v>0.125</v>
       </c>
       <c r="L61">
         <v>55</v>
@@ -2215,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2223,25 +2229,25 @@
         <v>69</v>
       </c>
       <c r="K62">
-        <v>0.1111111111111111</v>
+        <v>0.1120879120879121</v>
       </c>
       <c r="L62">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M62">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>240</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2249,25 +2255,25 @@
         <v>70</v>
       </c>
       <c r="K63">
-        <v>0.0954653937947494</v>
+        <v>0.1018651362984218</v>
       </c>
       <c r="L63">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="M63">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>379</v>
+        <v>626</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2275,25 +2281,25 @@
         <v>71</v>
       </c>
       <c r="K64">
-        <v>0.08908045977011494</v>
+        <v>0.1010928961748634</v>
       </c>
       <c r="L64">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="M64">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="N64">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>634</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2301,25 +2307,25 @@
         <v>72</v>
       </c>
       <c r="K65">
-        <v>0.07182835820895522</v>
+        <v>0.08396946564885496</v>
       </c>
       <c r="L65">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="M65">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>995</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2327,25 +2333,77 @@
         <v>73</v>
       </c>
       <c r="K66">
-        <v>0.04329004329004329</v>
+        <v>0.07749766573295985</v>
       </c>
       <c r="L66">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="M66">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="N66">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O66">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1105</v>
+        <v>988</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K67">
+        <v>0.05719557195571956</v>
+      </c>
+      <c r="L67">
+        <v>31</v>
+      </c>
+      <c r="M67">
+        <v>31</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K68">
+        <v>0.03902862098872507</v>
+      </c>
+      <c r="L68">
+        <v>45</v>
+      </c>
+      <c r="M68">
+        <v>49</v>
+      </c>
+      <c r="N68">
+        <v>0.92</v>
+      </c>
+      <c r="O68">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
